--- a/image/practitioner.xlsx
+++ b/image/practitioner.xlsx
@@ -913,46 +913,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.94140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.12109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.9140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.22265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.41015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/practitioner.xlsx
+++ b/image/practitioner.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="240">
   <si>
     <t>Path</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -624,10 +624,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -913,46 +909,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.12109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.94140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="53.22265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.41015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.9140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.06640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.25" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3160,13 +3156,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3217,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3235,7 +3231,7 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3249,7 +3245,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3278,7 +3274,7 @@
         <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>100</v>
@@ -3331,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3349,7 +3345,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3363,11 +3359,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3389,10 +3385,10 @@
         <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>100</v>
@@ -3447,7 +3443,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3479,7 +3475,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3505,14 +3501,14 @@
         <v>108</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3561,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3579,7 +3575,7 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3593,7 +3589,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3616,13 +3612,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3649,14 +3645,14 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>52</v>
@@ -3697,7 +3693,7 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -3705,7 +3701,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3728,17 +3724,17 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3787,7 +3783,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3805,13 +3801,13 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -3819,7 +3815,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3842,13 +3838,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3899,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3917,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -3931,7 +3927,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3954,19 +3950,19 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4015,7 +4011,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4030,16 +4026,16 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
